--- a/results_silence_7seconds.xlsx
+++ b/results_silence_7seconds.xlsx
@@ -474,7 +474,7 @@
         <v>1.96</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_0.mp3","silence_7seconds/output_0.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_0.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_0.mp3")</f>
         <v/>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1.4</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_1.mp3","silence_7seconds/output_1.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_1.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_1.mp3")</f>
         <v/>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <v>1.69</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_2.mp3","silence_7seconds/output_2.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_2.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_2.mp3")</f>
         <v/>
       </c>
     </row>
@@ -528,7 +528,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_3.mp3","silence_7seconds/output_3.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_3.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_3.mp3")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>12.99</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_4.mp3","silence_7seconds/output_4.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_4.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_4.mp3")</f>
         <v/>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <v>2.59</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_5.mp3","silence_7seconds/output_5.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_5.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_5.mp3")</f>
         <v/>
       </c>
     </row>
@@ -582,7 +582,7 @@
         <v>2.42</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_6.mp3","silence_7seconds/output_6.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_6.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_6.mp3")</f>
         <v/>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>2.84</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_7.mp3","silence_7seconds/output_7.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_7.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_7.mp3")</f>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>5.99</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_8.mp3","silence_7seconds/output_8.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_8.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_8.mp3")</f>
         <v/>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>61.6</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_9.mp3","silence_7seconds/output_9.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_9.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_9.mp3")</f>
         <v/>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>0.05</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_10.mp3","silence_7seconds/output_10.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_10.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_10.mp3")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>6.61</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_11.mp3","silence_7seconds/output_11.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_11.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_11.mp3")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_12.mp3","silence_7seconds/output_12.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_12.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_12.mp3")</f>
         <v/>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>0.31</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_13.mp3","silence_7seconds/output_13.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_13.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_13.mp3")</f>
         <v/>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>1.95</v>
       </c>
       <c r="E16">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_14.mp3","silence_7seconds/output_14.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_14.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_14.mp3")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>1.16</v>
       </c>
       <c r="E17">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_15.mp3","silence_7seconds/output_15.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_15.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_15.mp3")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>27.71</v>
       </c>
       <c r="E18">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_16.mp3","silence_7seconds/output_16.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_16.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_16.mp3")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>0.1</v>
       </c>
       <c r="E19">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_17.mp3","silence_7seconds/output_17.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_17.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_17.mp3")</f>
         <v/>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>5.95</v>
       </c>
       <c r="E20">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_18.mp3","silence_7seconds/output_18.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_18.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_18.mp3")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E21">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_19.mp3","silence_7seconds/output_19.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_19.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_19.mp3")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>8.59</v>
       </c>
       <c r="E22">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_20.mp3","silence_7seconds/output_20.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_20.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_20.mp3")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>4.65</v>
       </c>
       <c r="E23">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_21.mp3","silence_7seconds/output_21.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_21.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_21.mp3")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>1.34</v>
       </c>
       <c r="E24">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_22.mp3","silence_7seconds/output_22.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_22.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_22.mp3")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="E25">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_23.mp3","silence_7seconds/output_23.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_23.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_23.mp3")</f>
         <v/>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>8.17</v>
       </c>
       <c r="E26">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_24.mp3","silence_7seconds/output_24.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_24.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_24.mp3")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>5.72</v>
       </c>
       <c r="E27">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_25.mp3","silence_7seconds/output_25.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_25.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_25.mp3")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>33.54</v>
       </c>
       <c r="E28">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_26.mp3","silence_7seconds/output_26.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_26.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_26.mp3")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>0.71</v>
       </c>
       <c r="E29">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_27.mp3","silence_7seconds/output_27.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_27.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_27.mp3")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>6.94</v>
       </c>
       <c r="E30">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_28.mp3","silence_7seconds/output_28.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_28.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_28.mp3")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>18.93</v>
       </c>
       <c r="E31">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_29.mp3","silence_7seconds/output_29.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_29.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_29.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>2.58</v>
       </c>
       <c r="E32">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_30.mp3","silence_7seconds/output_30.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_30.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_30.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>8.42</v>
       </c>
       <c r="E33">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_31.mp3","silence_7seconds/output_31.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_31.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_31.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>6.78</v>
       </c>
       <c r="E34">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_32.mp3","silence_7seconds/output_32.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_32.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_32.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>11.34</v>
       </c>
       <c r="E35">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_33.mp3","silence_7seconds/output_33.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_33.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_33.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>12.66</v>
       </c>
       <c r="E36">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_34.mp3","silence_7seconds/output_34.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_34.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_34.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>2.55</v>
       </c>
       <c r="E37">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_35.mp3","silence_7seconds/output_35.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_35.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_35.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>18.42</v>
       </c>
       <c r="E38">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_36.mp3","silence_7seconds/output_36.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_36.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_36.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>11.09</v>
       </c>
       <c r="E39">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_37.mp3","silence_7seconds/output_37.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_37.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_37.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>3.03</v>
       </c>
       <c r="E40">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_38.mp3","silence_7seconds/output_38.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_38.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_38.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>7.4</v>
       </c>
       <c r="E41">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_39.mp3","silence_7seconds/output_39.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_39.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_39.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>9.31</v>
       </c>
       <c r="E42">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_40.mp3","silence_7seconds/output_40.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_40.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_40.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>1.95</v>
       </c>
       <c r="E43">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_41.mp3","silence_7seconds/output_41.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_41.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_41.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>2.18</v>
       </c>
       <c r="E44">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_42.mp3","silence_7seconds/output_42.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_42.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_42.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>13.98</v>
       </c>
       <c r="E45">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_43.mp3","silence_7seconds/output_43.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_43.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_43.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>11.15</v>
       </c>
       <c r="E46">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_44.mp3","silence_7seconds/output_44.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_44.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_44.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>3.38</v>
       </c>
       <c r="E47">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_45.mp3","silence_7seconds/output_45.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_45.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_45.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>1.51</v>
       </c>
       <c r="E48">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_46.mp3","silence_7seconds/output_46.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_46.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_46.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>14.4</v>
       </c>
       <c r="E49">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_47.mp3","silence_7seconds/output_47.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_47.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_47.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_48.mp3","silence_7seconds/output_48.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_48.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_48.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0.15</v>
       </c>
       <c r="E51">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_49.mp3","silence_7seconds/output_49.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_49.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_49.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5.72</v>
       </c>
       <c r="E52">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_50.mp3","silence_7seconds/output_50.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_50.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_50.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>5.87</v>
       </c>
       <c r="E53">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_51.mp3","silence_7seconds/output_51.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_51.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_51.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>7.32</v>
       </c>
       <c r="E54">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_52.mp3","silence_7seconds/output_52.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_52.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_52.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>1.94</v>
       </c>
       <c r="E55">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_53.mp3","silence_7seconds/output_53.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_53.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_53.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2.38</v>
       </c>
       <c r="E56">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_54.mp3","silence_7seconds/output_54.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_54.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_54.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>2.61</v>
       </c>
       <c r="E57">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_55.mp3","silence_7seconds/output_55.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_55.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_55.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>0.8</v>
       </c>
       <c r="E58">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_56.mp3","silence_7seconds/output_56.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_56.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_56.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>52.01</v>
       </c>
       <c r="E59">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_57.mp3","silence_7seconds/output_57.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_57.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_57.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>23.03</v>
       </c>
       <c r="E60">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_58.mp3","silence_7seconds/output_58.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_58.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_58.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>12.9</v>
       </c>
       <c r="E61">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_59.mp3","silence_7seconds/output_59.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_59.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_59.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>6.54</v>
       </c>
       <c r="E62">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_60.mp3","silence_7seconds/output_60.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_60.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_60.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>14.06</v>
       </c>
       <c r="E63">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_61.mp3","silence_7seconds/output_61.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_61.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_61.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>11.55</v>
       </c>
       <c r="E64">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_62.mp3","silence_7seconds/output_62.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_62.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_62.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>1.33</v>
       </c>
       <c r="E65">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_63.mp3","silence_7seconds/output_63.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_63.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_63.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>16.23</v>
       </c>
       <c r="E66">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_64.mp3","silence_7seconds/output_64.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_64.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_64.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>10.83</v>
       </c>
       <c r="E67">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_65.mp3","silence_7seconds/output_65.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_65.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_65.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="E68">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_66.mp3","silence_7seconds/output_66.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_66.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_66.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
         <v>4.41</v>
       </c>
       <c r="E69">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_67.mp3","silence_7seconds/output_67.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_67.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_67.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="E70">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_68.mp3","silence_7seconds/output_68.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_68.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_68.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>1.1</v>
       </c>
       <c r="E71">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_69.mp3","silence_7seconds/output_69.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_69.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_69.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
         <v>0.02</v>
       </c>
       <c r="E72">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_70.mp3","silence_7seconds/output_70.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_70.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_70.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>1.48</v>
       </c>
       <c r="E73">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_71.mp3","silence_7seconds/output_71.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_71.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_71.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.8</v>
       </c>
       <c r="E74">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_72.mp3","silence_7seconds/output_72.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_72.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_72.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>5.77</v>
       </c>
       <c r="E75">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_73.mp3","silence_7seconds/output_73.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_73.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_73.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
         <v>1.86</v>
       </c>
       <c r="E76">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_74.mp3","silence_7seconds/output_74.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_74.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_74.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
         <v>2.28</v>
       </c>
       <c r="E77">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_75.mp3","silence_7seconds/output_75.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_75.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_75.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>2.62</v>
       </c>
       <c r="E78">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_76.mp3","silence_7seconds/output_76.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_76.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_76.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
         <v>1.46</v>
       </c>
       <c r="E79">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_77.mp3","silence_7seconds/output_77.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_77.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_77.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>3.9</v>
       </c>
       <c r="E80">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_78.mp3","silence_7seconds/output_78.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_78.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_78.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>6.89</v>
       </c>
       <c r="E81">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_79.mp3","silence_7seconds/output_79.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_79.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_79.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>1.36</v>
       </c>
       <c r="E82">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_80.mp3","silence_7seconds/output_80.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_80.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_80.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>5.49</v>
       </c>
       <c r="E83">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_81.mp3","silence_7seconds/output_81.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_81.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_81.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>5.92</v>
       </c>
       <c r="E84">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_82.mp3","silence_7seconds/output_82.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_82.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_82.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>2.27</v>
       </c>
       <c r="E85">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_83.mp3","silence_7seconds/output_83.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_83.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_83.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>1.77</v>
       </c>
       <c r="E86">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_84.mp3","silence_7seconds/output_84.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_84.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_84.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>0.28</v>
       </c>
       <c r="E87">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_85.mp3","silence_7seconds/output_85.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_85.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_85.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>3.92</v>
       </c>
       <c r="E88">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_86.mp3","silence_7seconds/output_86.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_86.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_86.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         <v>0.37</v>
       </c>
       <c r="E89">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_87.mp3","silence_7seconds/output_87.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_87.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_87.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>0.59</v>
       </c>
       <c r="E90">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_88.mp3","silence_7seconds/output_88.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_88.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_88.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>0.85</v>
       </c>
       <c r="E91">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_89.mp3","silence_7seconds/output_89.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_89.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_89.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>0.74</v>
       </c>
       <c r="E92">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_90.mp3","silence_7seconds/output_90.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_90.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_90.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
         <v>1.92</v>
       </c>
       <c r="E93">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_91.mp3","silence_7seconds/output_91.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_91.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_91.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>7.79</v>
       </c>
       <c r="E94">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_92.mp3","silence_7seconds/output_92.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_92.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_92.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>2.78</v>
       </c>
       <c r="E95">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_93.mp3","silence_7seconds/output_93.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_93.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_93.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>3.89</v>
       </c>
       <c r="E96">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_94.mp3","silence_7seconds/output_94.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_94.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_94.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>10.4</v>
       </c>
       <c r="E97">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_95.mp3","silence_7seconds/output_95.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_95.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_95.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>6.48</v>
       </c>
       <c r="E98">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_96.mp3","silence_7seconds/output_96.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_96.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_96.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>2.49</v>
       </c>
       <c r="E99">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_97.mp3","silence_7seconds/output_97.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_97.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_97.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>1.06</v>
       </c>
       <c r="E100">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_98.mp3","silence_7seconds/output_98.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_98.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_98.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>1.36</v>
       </c>
       <c r="E101">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_99.mp3","silence_7seconds/output_99.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_99.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_99.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>5.36</v>
       </c>
       <c r="E102">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_100.mp3","silence_7seconds/output_100.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_100.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_100.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>3.44</v>
       </c>
       <c r="E103">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_101.mp3","silence_7seconds/output_101.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_101.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_101.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>0.75</v>
       </c>
       <c r="E104">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_102.mp3","silence_7seconds/output_102.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_102.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_102.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0.6</v>
       </c>
       <c r="E105">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_103.mp3","silence_7seconds/output_103.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_103.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_103.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>2.65</v>
       </c>
       <c r="E106">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_104.mp3","silence_7seconds/output_104.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_104.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_104.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>1.83</v>
       </c>
       <c r="E107">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_105.mp3","silence_7seconds/output_105.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_105.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_105.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>2.5</v>
       </c>
       <c r="E108">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_106.mp3","silence_7seconds/output_106.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_106.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_106.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>2.33</v>
       </c>
       <c r="E109">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_107.mp3","silence_7seconds/output_107.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_107.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_107.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>3.93</v>
       </c>
       <c r="E110">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_108.mp3","silence_7seconds/output_108.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_108.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_108.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>0.54</v>
       </c>
       <c r="E111">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_109.mp3","silence_7seconds/output_109.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_109.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_109.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <v>1.2</v>
       </c>
       <c r="E112">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_110.mp3","silence_7seconds/output_110.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_110.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_110.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>1.75</v>
       </c>
       <c r="E113">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_111.mp3","silence_7seconds/output_111.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_111.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_111.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>0.83</v>
       </c>
       <c r="E114">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_112.mp3","silence_7seconds/output_112.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_112.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_112.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>1.84</v>
       </c>
       <c r="E115">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_113.mp3","silence_7seconds/output_113.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_113.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_113.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>2.34</v>
       </c>
       <c r="E116">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_7seconds/output_114.mp3","silence_7seconds/output_114.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_114.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_114.mp3")</f>
         <v/>
       </c>
     </row>

--- a/results_silence_7seconds.xlsx
+++ b/results_silence_7seconds.xlsx
@@ -474,7 +474,7 @@
         <v>1.96</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_0.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_0.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_0.mp3", "silence_7seconds/output_0.mp3")</f>
         <v/>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1.4</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_1.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_1.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_1.mp3", "silence_7seconds/output_1.mp3")</f>
         <v/>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <v>1.69</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_2.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_2.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_2.mp3", "silence_7seconds/output_2.mp3")</f>
         <v/>
       </c>
     </row>
@@ -528,7 +528,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_3.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_3.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_3.mp3", "silence_7seconds/output_3.mp3")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>12.99</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_4.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_4.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_4.mp3", "silence_7seconds/output_4.mp3")</f>
         <v/>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <v>2.59</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_5.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_5.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_5.mp3", "silence_7seconds/output_5.mp3")</f>
         <v/>
       </c>
     </row>
@@ -582,7 +582,7 @@
         <v>2.42</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_6.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_6.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_6.mp3", "silence_7seconds/output_6.mp3")</f>
         <v/>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>2.84</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_7.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_7.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_7.mp3", "silence_7seconds/output_7.mp3")</f>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>5.99</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_8.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_8.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_8.mp3", "silence_7seconds/output_8.mp3")</f>
         <v/>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>61.6</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_9.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_9.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_9.mp3", "silence_7seconds/output_9.mp3")</f>
         <v/>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>0.05</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_10.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_10.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_10.mp3", "silence_7seconds/output_10.mp3")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>6.61</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_11.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_11.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_11.mp3", "silence_7seconds/output_11.mp3")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_12.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_12.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_12.mp3", "silence_7seconds/output_12.mp3")</f>
         <v/>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>0.31</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_13.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_13.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_13.mp3", "silence_7seconds/output_13.mp3")</f>
         <v/>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>1.95</v>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_14.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_14.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_14.mp3", "silence_7seconds/output_14.mp3")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>1.16</v>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_15.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_15.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_15.mp3", "silence_7seconds/output_15.mp3")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>27.71</v>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_16.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_16.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_16.mp3", "silence_7seconds/output_16.mp3")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>0.1</v>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_17.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_17.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_17.mp3", "silence_7seconds/output_17.mp3")</f>
         <v/>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>5.95</v>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_18.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_18.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_18.mp3", "silence_7seconds/output_18.mp3")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_19.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_19.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_19.mp3", "silence_7seconds/output_19.mp3")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>8.59</v>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_20.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_20.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_20.mp3", "silence_7seconds/output_20.mp3")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>4.65</v>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_21.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_21.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_21.mp3", "silence_7seconds/output_21.mp3")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>1.34</v>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_22.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_22.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_22.mp3", "silence_7seconds/output_22.mp3")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_23.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_23.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_23.mp3", "silence_7seconds/output_23.mp3")</f>
         <v/>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>8.17</v>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_24.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_24.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_24.mp3", "silence_7seconds/output_24.mp3")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>5.72</v>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_25.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_25.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_25.mp3", "silence_7seconds/output_25.mp3")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>33.54</v>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_26.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_26.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_26.mp3", "silence_7seconds/output_26.mp3")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>0.71</v>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_27.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_27.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_27.mp3", "silence_7seconds/output_27.mp3")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>6.94</v>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_28.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_28.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_28.mp3", "silence_7seconds/output_28.mp3")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>18.93</v>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_29.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_29.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_29.mp3", "silence_7seconds/output_29.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>2.58</v>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_30.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_30.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_30.mp3", "silence_7seconds/output_30.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>8.42</v>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_31.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_31.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_31.mp3", "silence_7seconds/output_31.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>6.78</v>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_32.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_32.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_32.mp3", "silence_7seconds/output_32.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>11.34</v>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_33.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_33.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_33.mp3", "silence_7seconds/output_33.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>12.66</v>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_34.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_34.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_34.mp3", "silence_7seconds/output_34.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>2.55</v>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_35.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_35.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_35.mp3", "silence_7seconds/output_35.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>18.42</v>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_36.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_36.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_36.mp3", "silence_7seconds/output_36.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>11.09</v>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_37.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_37.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_37.mp3", "silence_7seconds/output_37.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>3.03</v>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_38.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_38.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_38.mp3", "silence_7seconds/output_38.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>7.4</v>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_39.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_39.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_39.mp3", "silence_7seconds/output_39.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>9.31</v>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_40.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_40.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_40.mp3", "silence_7seconds/output_40.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>1.95</v>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_41.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_41.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_41.mp3", "silence_7seconds/output_41.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>2.18</v>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_42.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_42.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_42.mp3", "silence_7seconds/output_42.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>13.98</v>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_43.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_43.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_43.mp3", "silence_7seconds/output_43.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>11.15</v>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_44.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_44.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_44.mp3", "silence_7seconds/output_44.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>3.38</v>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_45.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_45.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_45.mp3", "silence_7seconds/output_45.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>1.51</v>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_46.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_46.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_46.mp3", "silence_7seconds/output_46.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>14.4</v>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_47.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_47.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_47.mp3", "silence_7seconds/output_47.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_48.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_48.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_48.mp3", "silence_7seconds/output_48.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0.15</v>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_49.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_49.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_49.mp3", "silence_7seconds/output_49.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5.72</v>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_50.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_50.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_50.mp3", "silence_7seconds/output_50.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>5.87</v>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_51.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_51.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_51.mp3", "silence_7seconds/output_51.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>7.32</v>
       </c>
       <c r="E54">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_52.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_52.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_52.mp3", "silence_7seconds/output_52.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>1.94</v>
       </c>
       <c r="E55">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_53.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_53.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_53.mp3", "silence_7seconds/output_53.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2.38</v>
       </c>
       <c r="E56">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_54.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_54.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_54.mp3", "silence_7seconds/output_54.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>2.61</v>
       </c>
       <c r="E57">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_55.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_55.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_55.mp3", "silence_7seconds/output_55.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>0.8</v>
       </c>
       <c r="E58">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_56.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_56.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_56.mp3", "silence_7seconds/output_56.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>52.01</v>
       </c>
       <c r="E59">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_57.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_57.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_57.mp3", "silence_7seconds/output_57.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>23.03</v>
       </c>
       <c r="E60">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_58.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_58.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_58.mp3", "silence_7seconds/output_58.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>12.9</v>
       </c>
       <c r="E61">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_59.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_59.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_59.mp3", "silence_7seconds/output_59.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>6.54</v>
       </c>
       <c r="E62">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_60.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_60.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_60.mp3", "silence_7seconds/output_60.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>14.06</v>
       </c>
       <c r="E63">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_61.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_61.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_61.mp3", "silence_7seconds/output_61.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>11.55</v>
       </c>
       <c r="E64">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_62.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_62.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_62.mp3", "silence_7seconds/output_62.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>1.33</v>
       </c>
       <c r="E65">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_63.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_63.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_63.mp3", "silence_7seconds/output_63.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>16.23</v>
       </c>
       <c r="E66">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_64.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_64.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_64.mp3", "silence_7seconds/output_64.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>10.83</v>
       </c>
       <c r="E67">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_65.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_65.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_65.mp3", "silence_7seconds/output_65.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="E68">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_66.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_66.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_66.mp3", "silence_7seconds/output_66.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
         <v>4.41</v>
       </c>
       <c r="E69">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_67.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_67.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_67.mp3", "silence_7seconds/output_67.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="E70">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_68.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_68.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_68.mp3", "silence_7seconds/output_68.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>1.1</v>
       </c>
       <c r="E71">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_69.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_69.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_69.mp3", "silence_7seconds/output_69.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
         <v>0.02</v>
       </c>
       <c r="E72">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_70.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_70.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_70.mp3", "silence_7seconds/output_70.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>1.48</v>
       </c>
       <c r="E73">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_71.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_71.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_71.mp3", "silence_7seconds/output_71.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.8</v>
       </c>
       <c r="E74">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_72.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_72.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_72.mp3", "silence_7seconds/output_72.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>5.77</v>
       </c>
       <c r="E75">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_73.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_73.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_73.mp3", "silence_7seconds/output_73.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
         <v>1.86</v>
       </c>
       <c r="E76">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_74.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_74.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_74.mp3", "silence_7seconds/output_74.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
         <v>2.28</v>
       </c>
       <c r="E77">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_75.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_75.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_75.mp3", "silence_7seconds/output_75.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>2.62</v>
       </c>
       <c r="E78">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_76.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_76.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_76.mp3", "silence_7seconds/output_76.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
         <v>1.46</v>
       </c>
       <c r="E79">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_77.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_77.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_77.mp3", "silence_7seconds/output_77.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>3.9</v>
       </c>
       <c r="E80">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_78.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_78.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_78.mp3", "silence_7seconds/output_78.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>6.89</v>
       </c>
       <c r="E81">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_79.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_79.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_79.mp3", "silence_7seconds/output_79.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>1.36</v>
       </c>
       <c r="E82">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_80.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_80.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_80.mp3", "silence_7seconds/output_80.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>5.49</v>
       </c>
       <c r="E83">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_81.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_81.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_81.mp3", "silence_7seconds/output_81.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>5.92</v>
       </c>
       <c r="E84">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_82.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_82.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_82.mp3", "silence_7seconds/output_82.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>2.27</v>
       </c>
       <c r="E85">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_83.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_83.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_83.mp3", "silence_7seconds/output_83.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>1.77</v>
       </c>
       <c r="E86">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_84.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_84.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_84.mp3", "silence_7seconds/output_84.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>0.28</v>
       </c>
       <c r="E87">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_85.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_85.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_85.mp3", "silence_7seconds/output_85.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>3.92</v>
       </c>
       <c r="E88">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_86.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_86.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_86.mp3", "silence_7seconds/output_86.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         <v>0.37</v>
       </c>
       <c r="E89">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_87.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_87.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_87.mp3", "silence_7seconds/output_87.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>0.59</v>
       </c>
       <c r="E90">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_88.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_88.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_88.mp3", "silence_7seconds/output_88.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>0.85</v>
       </c>
       <c r="E91">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_89.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_89.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_89.mp3", "silence_7seconds/output_89.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>0.74</v>
       </c>
       <c r="E92">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_90.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_90.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_90.mp3", "silence_7seconds/output_90.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
         <v>1.92</v>
       </c>
       <c r="E93">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_91.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_91.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_91.mp3", "silence_7seconds/output_91.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>7.79</v>
       </c>
       <c r="E94">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_92.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_92.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_92.mp3", "silence_7seconds/output_92.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>2.78</v>
       </c>
       <c r="E95">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_93.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_93.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_93.mp3", "silence_7seconds/output_93.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>3.89</v>
       </c>
       <c r="E96">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_94.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_94.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_94.mp3", "silence_7seconds/output_94.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>10.4</v>
       </c>
       <c r="E97">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_95.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_95.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_95.mp3", "silence_7seconds/output_95.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>6.48</v>
       </c>
       <c r="E98">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_96.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_96.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_96.mp3", "silence_7seconds/output_96.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>2.49</v>
       </c>
       <c r="E99">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_97.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_97.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_97.mp3", "silence_7seconds/output_97.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>1.06</v>
       </c>
       <c r="E100">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_98.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_98.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_98.mp3", "silence_7seconds/output_98.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>1.36</v>
       </c>
       <c r="E101">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_99.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_99.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_99.mp3", "silence_7seconds/output_99.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>5.36</v>
       </c>
       <c r="E102">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_100.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_100.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_100.mp3", "silence_7seconds/output_100.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>3.44</v>
       </c>
       <c r="E103">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_101.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_101.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_101.mp3", "silence_7seconds/output_101.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>0.75</v>
       </c>
       <c r="E104">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_102.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_102.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_102.mp3", "silence_7seconds/output_102.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0.6</v>
       </c>
       <c r="E105">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_103.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_103.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_103.mp3", "silence_7seconds/output_103.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>2.65</v>
       </c>
       <c r="E106">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_104.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_104.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_104.mp3", "silence_7seconds/output_104.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>1.83</v>
       </c>
       <c r="E107">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_105.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_105.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_105.mp3", "silence_7seconds/output_105.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>2.5</v>
       </c>
       <c r="E108">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_106.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_106.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_106.mp3", "silence_7seconds/output_106.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>2.33</v>
       </c>
       <c r="E109">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_107.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_107.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_107.mp3", "silence_7seconds/output_107.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>3.93</v>
       </c>
       <c r="E110">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_108.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_108.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_108.mp3", "silence_7seconds/output_108.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>0.54</v>
       </c>
       <c r="E111">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_109.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_109.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_109.mp3", "silence_7seconds/output_109.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <v>1.2</v>
       </c>
       <c r="E112">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_110.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_110.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_110.mp3", "silence_7seconds/output_110.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>1.75</v>
       </c>
       <c r="E113">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_111.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_111.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_111.mp3", "silence_7seconds/output_111.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>0.83</v>
       </c>
       <c r="E114">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_112.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_112.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_112.mp3", "silence_7seconds/output_112.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>1.84</v>
       </c>
       <c r="E115">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_113.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_113.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_113.mp3", "silence_7seconds/output_113.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>2.34</v>
       </c>
       <c r="E116">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_7seconds/output_114.mp3", "https://github.com/Pier297/tamasheq/silence_7seconds/output_114.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_114.mp3", "silence_7seconds/output_114.mp3")</f>
         <v/>
       </c>
     </row>

--- a/results_silence_7seconds.xlsx
+++ b/results_silence_7seconds.xlsx
@@ -474,7 +474,7 @@
         <v>1.96</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_0.mp3", "silence_7seconds/output_0.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_0.mp3", "silence_7seconds/output_0.mp3")</f>
         <v/>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1.4</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_1.mp3", "silence_7seconds/output_1.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_1.mp3", "silence_7seconds/output_1.mp3")</f>
         <v/>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <v>1.69</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_2.mp3", "silence_7seconds/output_2.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_2.mp3", "silence_7seconds/output_2.mp3")</f>
         <v/>
       </c>
     </row>
@@ -528,7 +528,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_3.mp3", "silence_7seconds/output_3.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_3.mp3", "silence_7seconds/output_3.mp3")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>12.99</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_4.mp3", "silence_7seconds/output_4.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_4.mp3", "silence_7seconds/output_4.mp3")</f>
         <v/>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <v>2.59</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_5.mp3", "silence_7seconds/output_5.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_5.mp3", "silence_7seconds/output_5.mp3")</f>
         <v/>
       </c>
     </row>
@@ -582,7 +582,7 @@
         <v>2.42</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_6.mp3", "silence_7seconds/output_6.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_6.mp3", "silence_7seconds/output_6.mp3")</f>
         <v/>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>2.84</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_7.mp3", "silence_7seconds/output_7.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_7.mp3", "silence_7seconds/output_7.mp3")</f>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>5.99</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_8.mp3", "silence_7seconds/output_8.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_8.mp3", "silence_7seconds/output_8.mp3")</f>
         <v/>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>61.6</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_9.mp3", "silence_7seconds/output_9.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_9.mp3", "silence_7seconds/output_9.mp3")</f>
         <v/>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>0.05</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_10.mp3", "silence_7seconds/output_10.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_10.mp3", "silence_7seconds/output_10.mp3")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>6.61</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_11.mp3", "silence_7seconds/output_11.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_11.mp3", "silence_7seconds/output_11.mp3")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_12.mp3", "silence_7seconds/output_12.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_12.mp3", "silence_7seconds/output_12.mp3")</f>
         <v/>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>0.31</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_13.mp3", "silence_7seconds/output_13.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_13.mp3", "silence_7seconds/output_13.mp3")</f>
         <v/>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>1.95</v>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_14.mp3", "silence_7seconds/output_14.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_14.mp3", "silence_7seconds/output_14.mp3")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>1.16</v>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_15.mp3", "silence_7seconds/output_15.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_15.mp3", "silence_7seconds/output_15.mp3")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>27.71</v>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_16.mp3", "silence_7seconds/output_16.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_16.mp3", "silence_7seconds/output_16.mp3")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>0.1</v>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_17.mp3", "silence_7seconds/output_17.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_17.mp3", "silence_7seconds/output_17.mp3")</f>
         <v/>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>5.95</v>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_18.mp3", "silence_7seconds/output_18.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_18.mp3", "silence_7seconds/output_18.mp3")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_19.mp3", "silence_7seconds/output_19.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_19.mp3", "silence_7seconds/output_19.mp3")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>8.59</v>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_20.mp3", "silence_7seconds/output_20.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_20.mp3", "silence_7seconds/output_20.mp3")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>4.65</v>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_21.mp3", "silence_7seconds/output_21.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_21.mp3", "silence_7seconds/output_21.mp3")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>1.34</v>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_22.mp3", "silence_7seconds/output_22.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_22.mp3", "silence_7seconds/output_22.mp3")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_23.mp3", "silence_7seconds/output_23.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_23.mp3", "silence_7seconds/output_23.mp3")</f>
         <v/>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>8.17</v>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_24.mp3", "silence_7seconds/output_24.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_24.mp3", "silence_7seconds/output_24.mp3")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>5.72</v>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_25.mp3", "silence_7seconds/output_25.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_25.mp3", "silence_7seconds/output_25.mp3")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>33.54</v>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_26.mp3", "silence_7seconds/output_26.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_26.mp3", "silence_7seconds/output_26.mp3")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>0.71</v>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_27.mp3", "silence_7seconds/output_27.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_27.mp3", "silence_7seconds/output_27.mp3")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>6.94</v>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_28.mp3", "silence_7seconds/output_28.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_28.mp3", "silence_7seconds/output_28.mp3")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>18.93</v>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_29.mp3", "silence_7seconds/output_29.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_29.mp3", "silence_7seconds/output_29.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>2.58</v>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_30.mp3", "silence_7seconds/output_30.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_30.mp3", "silence_7seconds/output_30.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>8.42</v>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_31.mp3", "silence_7seconds/output_31.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_31.mp3", "silence_7seconds/output_31.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>6.78</v>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_32.mp3", "silence_7seconds/output_32.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_32.mp3", "silence_7seconds/output_32.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>11.34</v>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_33.mp3", "silence_7seconds/output_33.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_33.mp3", "silence_7seconds/output_33.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>12.66</v>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_34.mp3", "silence_7seconds/output_34.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_34.mp3", "silence_7seconds/output_34.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>2.55</v>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_35.mp3", "silence_7seconds/output_35.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_35.mp3", "silence_7seconds/output_35.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>18.42</v>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_36.mp3", "silence_7seconds/output_36.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_36.mp3", "silence_7seconds/output_36.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>11.09</v>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_37.mp3", "silence_7seconds/output_37.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_37.mp3", "silence_7seconds/output_37.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>3.03</v>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_38.mp3", "silence_7seconds/output_38.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_38.mp3", "silence_7seconds/output_38.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>7.4</v>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_39.mp3", "silence_7seconds/output_39.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_39.mp3", "silence_7seconds/output_39.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>9.31</v>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_40.mp3", "silence_7seconds/output_40.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_40.mp3", "silence_7seconds/output_40.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>1.95</v>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_41.mp3", "silence_7seconds/output_41.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_41.mp3", "silence_7seconds/output_41.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>2.18</v>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_42.mp3", "silence_7seconds/output_42.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_42.mp3", "silence_7seconds/output_42.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>13.98</v>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_43.mp3", "silence_7seconds/output_43.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_43.mp3", "silence_7seconds/output_43.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>11.15</v>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_44.mp3", "silence_7seconds/output_44.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_44.mp3", "silence_7seconds/output_44.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>3.38</v>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_45.mp3", "silence_7seconds/output_45.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_45.mp3", "silence_7seconds/output_45.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>1.51</v>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_46.mp3", "silence_7seconds/output_46.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_46.mp3", "silence_7seconds/output_46.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>14.4</v>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_47.mp3", "silence_7seconds/output_47.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_47.mp3", "silence_7seconds/output_47.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_48.mp3", "silence_7seconds/output_48.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_48.mp3", "silence_7seconds/output_48.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0.15</v>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_49.mp3", "silence_7seconds/output_49.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_49.mp3", "silence_7seconds/output_49.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5.72</v>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_50.mp3", "silence_7seconds/output_50.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_50.mp3", "silence_7seconds/output_50.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>5.87</v>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_51.mp3", "silence_7seconds/output_51.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_51.mp3", "silence_7seconds/output_51.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>7.32</v>
       </c>
       <c r="E54">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_52.mp3", "silence_7seconds/output_52.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_52.mp3", "silence_7seconds/output_52.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>1.94</v>
       </c>
       <c r="E55">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_53.mp3", "silence_7seconds/output_53.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_53.mp3", "silence_7seconds/output_53.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2.38</v>
       </c>
       <c r="E56">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_54.mp3", "silence_7seconds/output_54.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_54.mp3", "silence_7seconds/output_54.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>2.61</v>
       </c>
       <c r="E57">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_55.mp3", "silence_7seconds/output_55.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_55.mp3", "silence_7seconds/output_55.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>0.8</v>
       </c>
       <c r="E58">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_56.mp3", "silence_7seconds/output_56.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_56.mp3", "silence_7seconds/output_56.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>52.01</v>
       </c>
       <c r="E59">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_57.mp3", "silence_7seconds/output_57.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_57.mp3", "silence_7seconds/output_57.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>23.03</v>
       </c>
       <c r="E60">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_58.mp3", "silence_7seconds/output_58.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_58.mp3", "silence_7seconds/output_58.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>12.9</v>
       </c>
       <c r="E61">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_59.mp3", "silence_7seconds/output_59.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_59.mp3", "silence_7seconds/output_59.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>6.54</v>
       </c>
       <c r="E62">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_60.mp3", "silence_7seconds/output_60.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_60.mp3", "silence_7seconds/output_60.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>14.06</v>
       </c>
       <c r="E63">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_61.mp3", "silence_7seconds/output_61.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_61.mp3", "silence_7seconds/output_61.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>11.55</v>
       </c>
       <c r="E64">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_62.mp3", "silence_7seconds/output_62.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_62.mp3", "silence_7seconds/output_62.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>1.33</v>
       </c>
       <c r="E65">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_63.mp3", "silence_7seconds/output_63.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_63.mp3", "silence_7seconds/output_63.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>16.23</v>
       </c>
       <c r="E66">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_64.mp3", "silence_7seconds/output_64.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_64.mp3", "silence_7seconds/output_64.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>10.83</v>
       </c>
       <c r="E67">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_65.mp3", "silence_7seconds/output_65.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_65.mp3", "silence_7seconds/output_65.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="E68">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_66.mp3", "silence_7seconds/output_66.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_66.mp3", "silence_7seconds/output_66.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
         <v>4.41</v>
       </c>
       <c r="E69">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_67.mp3", "silence_7seconds/output_67.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_67.mp3", "silence_7seconds/output_67.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="E70">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_68.mp3", "silence_7seconds/output_68.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_68.mp3", "silence_7seconds/output_68.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>1.1</v>
       </c>
       <c r="E71">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_69.mp3", "silence_7seconds/output_69.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_69.mp3", "silence_7seconds/output_69.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
         <v>0.02</v>
       </c>
       <c r="E72">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_70.mp3", "silence_7seconds/output_70.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_70.mp3", "silence_7seconds/output_70.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>1.48</v>
       </c>
       <c r="E73">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_71.mp3", "silence_7seconds/output_71.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_71.mp3", "silence_7seconds/output_71.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>3.8</v>
       </c>
       <c r="E74">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_72.mp3", "silence_7seconds/output_72.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_72.mp3", "silence_7seconds/output_72.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>5.77</v>
       </c>
       <c r="E75">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_73.mp3", "silence_7seconds/output_73.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_73.mp3", "silence_7seconds/output_73.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
         <v>1.86</v>
       </c>
       <c r="E76">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_74.mp3", "silence_7seconds/output_74.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_74.mp3", "silence_7seconds/output_74.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
         <v>2.28</v>
       </c>
       <c r="E77">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_75.mp3", "silence_7seconds/output_75.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_75.mp3", "silence_7seconds/output_75.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>2.62</v>
       </c>
       <c r="E78">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_76.mp3", "silence_7seconds/output_76.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_76.mp3", "silence_7seconds/output_76.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
         <v>1.46</v>
       </c>
       <c r="E79">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_77.mp3", "silence_7seconds/output_77.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_77.mp3", "silence_7seconds/output_77.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>3.9</v>
       </c>
       <c r="E80">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_78.mp3", "silence_7seconds/output_78.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_78.mp3", "silence_7seconds/output_78.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>6.89</v>
       </c>
       <c r="E81">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_79.mp3", "silence_7seconds/output_79.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_79.mp3", "silence_7seconds/output_79.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>1.36</v>
       </c>
       <c r="E82">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_80.mp3", "silence_7seconds/output_80.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_80.mp3", "silence_7seconds/output_80.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>5.49</v>
       </c>
       <c r="E83">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_81.mp3", "silence_7seconds/output_81.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_81.mp3", "silence_7seconds/output_81.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>5.92</v>
       </c>
       <c r="E84">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_82.mp3", "silence_7seconds/output_82.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_82.mp3", "silence_7seconds/output_82.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>2.27</v>
       </c>
       <c r="E85">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_83.mp3", "silence_7seconds/output_83.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_83.mp3", "silence_7seconds/output_83.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>1.77</v>
       </c>
       <c r="E86">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_84.mp3", "silence_7seconds/output_84.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_84.mp3", "silence_7seconds/output_84.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>0.28</v>
       </c>
       <c r="E87">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_85.mp3", "silence_7seconds/output_85.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_85.mp3", "silence_7seconds/output_85.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>3.92</v>
       </c>
       <c r="E88">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_86.mp3", "silence_7seconds/output_86.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_86.mp3", "silence_7seconds/output_86.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         <v>0.37</v>
       </c>
       <c r="E89">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_87.mp3", "silence_7seconds/output_87.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_87.mp3", "silence_7seconds/output_87.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>0.59</v>
       </c>
       <c r="E90">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_88.mp3", "silence_7seconds/output_88.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_88.mp3", "silence_7seconds/output_88.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>0.85</v>
       </c>
       <c r="E91">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_89.mp3", "silence_7seconds/output_89.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_89.mp3", "silence_7seconds/output_89.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>0.74</v>
       </c>
       <c r="E92">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_90.mp3", "silence_7seconds/output_90.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_90.mp3", "silence_7seconds/output_90.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
         <v>1.92</v>
       </c>
       <c r="E93">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_91.mp3", "silence_7seconds/output_91.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_91.mp3", "silence_7seconds/output_91.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>7.79</v>
       </c>
       <c r="E94">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_92.mp3", "silence_7seconds/output_92.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_92.mp3", "silence_7seconds/output_92.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>2.78</v>
       </c>
       <c r="E95">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_93.mp3", "silence_7seconds/output_93.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_93.mp3", "silence_7seconds/output_93.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>3.89</v>
       </c>
       <c r="E96">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_94.mp3", "silence_7seconds/output_94.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_94.mp3", "silence_7seconds/output_94.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>10.4</v>
       </c>
       <c r="E97">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_95.mp3", "silence_7seconds/output_95.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_95.mp3", "silence_7seconds/output_95.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>6.48</v>
       </c>
       <c r="E98">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_96.mp3", "silence_7seconds/output_96.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_96.mp3", "silence_7seconds/output_96.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>2.49</v>
       </c>
       <c r="E99">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_97.mp3", "silence_7seconds/output_97.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_97.mp3", "silence_7seconds/output_97.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>1.06</v>
       </c>
       <c r="E100">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_98.mp3", "silence_7seconds/output_98.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_98.mp3", "silence_7seconds/output_98.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>1.36</v>
       </c>
       <c r="E101">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_99.mp3", "silence_7seconds/output_99.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_99.mp3", "silence_7seconds/output_99.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>5.36</v>
       </c>
       <c r="E102">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_100.mp3", "silence_7seconds/output_100.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_100.mp3", "silence_7seconds/output_100.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>3.44</v>
       </c>
       <c r="E103">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_101.mp3", "silence_7seconds/output_101.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_101.mp3", "silence_7seconds/output_101.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>0.75</v>
       </c>
       <c r="E104">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_102.mp3", "silence_7seconds/output_102.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_102.mp3", "silence_7seconds/output_102.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0.6</v>
       </c>
       <c r="E105">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_103.mp3", "silence_7seconds/output_103.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_103.mp3", "silence_7seconds/output_103.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>2.65</v>
       </c>
       <c r="E106">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_104.mp3", "silence_7seconds/output_104.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_104.mp3", "silence_7seconds/output_104.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>1.83</v>
       </c>
       <c r="E107">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_105.mp3", "silence_7seconds/output_105.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_105.mp3", "silence_7seconds/output_105.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>2.5</v>
       </c>
       <c r="E108">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_106.mp3", "silence_7seconds/output_106.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_106.mp3", "silence_7seconds/output_106.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>2.33</v>
       </c>
       <c r="E109">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_107.mp3", "silence_7seconds/output_107.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_107.mp3", "silence_7seconds/output_107.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>3.93</v>
       </c>
       <c r="E110">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_108.mp3", "silence_7seconds/output_108.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_108.mp3", "silence_7seconds/output_108.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>0.54</v>
       </c>
       <c r="E111">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_109.mp3", "silence_7seconds/output_109.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_109.mp3", "silence_7seconds/output_109.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <v>1.2</v>
       </c>
       <c r="E112">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_110.mp3", "silence_7seconds/output_110.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_110.mp3", "silence_7seconds/output_110.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>1.75</v>
       </c>
       <c r="E113">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_111.mp3", "silence_7seconds/output_111.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_111.mp3", "silence_7seconds/output_111.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>0.83</v>
       </c>
       <c r="E114">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_112.mp3", "silence_7seconds/output_112.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_112.mp3", "silence_7seconds/output_112.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>1.84</v>
       </c>
       <c r="E115">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_113.mp3", "silence_7seconds/output_113.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_113.mp3", "silence_7seconds/output_113.mp3")</f>
         <v/>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>2.34</v>
       </c>
       <c r="E116">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_7seconds/output_114.mp3", "silence_7seconds/output_114.mp3")</f>
+        <f>HYPERLINK("silence_7seconds/output_114.mp3", "silence_7seconds/output_114.mp3")</f>
         <v/>
       </c>
     </row>
